--- a/src/test/resources/test-file/test.xlsx
+++ b/src/test/resources/test-file/test.xlsx
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,9 +264,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -554,10 +551,10 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +647,6 @@
       <c r="D2" s="8">
         <v>10</v>
       </c>
-      <c r="E2" s="11"/>
       <c r="F2" s="7">
         <v>42736</v>
       </c>
@@ -694,21 +690,21 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C5" s="7"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/test-file/test.xlsx
+++ b/src/test/resources/test-file/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,20 @@
   </si>
   <si>
     <t>LocalDate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权开始日期</t>
+  </si>
+  <si>
+    <t>授权截止日期</t>
+  </si>
+  <si>
+    <t>2017-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +151,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,8 +196,22 @@
       <color rgb="FF6A8759"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,6 +260,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -234,7 +281,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,6 +313,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -548,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +626,9 @@
     <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.83203125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="35.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" style="1" customWidth="1"/>
@@ -575,7 +636,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -600,41 +661,47 @@
       <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -654,56 +721,62 @@
         <v>42736</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C5" s="7"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E7" s="11"/>
     </row>
   </sheetData>

--- a/src/test/resources/test-file/test.xlsx
+++ b/src/test/resources/test-file/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="13380" windowWidth="35200" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,17 +128,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权开始日期</t>
-  </si>
-  <si>
-    <t>授权截止日期</t>
-  </si>
-  <si>
-    <t>2017-1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-30</t>
+    <t>2017-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/01/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy\MM\dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyyMMdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017\01\01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +169,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,12 +216,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -211,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -314,17 +332,17 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -607,13 +625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,17 +644,19 @@
     <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="35.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="18.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="35.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -661,47 +681,53 @@
       <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -720,64 +746,66 @@
       <c r="G2" s="9">
         <v>42736</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/test-file/test.xlsx
+++ b/src/test/resources/test-file/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="13380" windowWidth="35200" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="6360" windowWidth="35200" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>2017\01\01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/1/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,13 +633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,18 +653,18 @@
     <col min="7" max="7" width="24.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="35.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="23.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="35.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -687,47 +695,50 @@
       <c r="J1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -753,38 +764,38 @@
       <c r="J2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>17</v>
@@ -792,19 +803,22 @@
       <c r="W2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E6" s="11"/>
     </row>
   </sheetData>

--- a/src/test/resources/test-file/test.xlsx
+++ b/src/test/resources/test-file/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="6360" windowWidth="35200" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="6920" yWindow="5880" windowWidth="35200" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -636,10 +636,10 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
